--- a/data/trans_orig/P1201-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1201-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>4620</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1771</v>
+        <v>1780</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10564</v>
+        <v>10397</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004478429200964963</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001716214944848234</v>
+        <v>0.001725438047572958</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01023905894353004</v>
+        <v>0.01007730545194699</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -765,19 +765,19 @@
         <v>13313</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7450</v>
+        <v>7266</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22639</v>
+        <v>22947</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01012274362468719</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.005664967884892634</v>
+        <v>0.00552484417749354</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01721436243489006</v>
+        <v>0.01744870806175127</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>18</v>
@@ -786,19 +786,19 @@
         <v>17933</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>11510</v>
+        <v>11249</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>28121</v>
+        <v>28071</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00764137321060246</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004904539035253303</v>
+        <v>0.004793297316281392</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01198249396882512</v>
+        <v>0.0119610262255103</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>43750</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>32377</v>
+        <v>32497</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>57922</v>
+        <v>58367</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04240478443120541</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03138182932004251</v>
+        <v>0.03149736710205869</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05614096495727387</v>
+        <v>0.05657188772307751</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>66</v>
@@ -836,19 +836,19 @@
         <v>68397</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>52803</v>
+        <v>54879</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>86467</v>
+        <v>87595</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05200853348372749</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04015070353439217</v>
+        <v>0.04172983732602048</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06574844365319384</v>
+        <v>0.06660665007585712</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>110</v>
@@ -857,19 +857,19 @@
         <v>112147</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>91330</v>
+        <v>92476</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>133254</v>
+        <v>133522</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04778650455793508</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03891630226178718</v>
+        <v>0.03940459362282582</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0567804896133814</v>
+        <v>0.05689432854802149</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>189252</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>167728</v>
+        <v>165350</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>215772</v>
+        <v>214979</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1834325711325726</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1625705409789215</v>
+        <v>0.1602658434760856</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2091373632749113</v>
+        <v>0.2083689430525001</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>268</v>
@@ -907,19 +907,19 @@
         <v>274962</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>247005</v>
+        <v>248706</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>305983</v>
+        <v>305171</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2090783071979524</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1878204681949484</v>
+        <v>0.1891135360308439</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2326664189528338</v>
+        <v>0.2320490201960513</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>457</v>
@@ -928,19 +928,19 @@
         <v>464213</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>427903</v>
+        <v>427281</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>503761</v>
+        <v>505288</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1978038518889774</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1823318964614386</v>
+        <v>0.1820668692805431</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2146556087682009</v>
+        <v>0.2153061167469929</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>123637</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>104729</v>
+        <v>104527</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>145588</v>
+        <v>143847</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1198354907046108</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1015090479466729</v>
+        <v>0.1013129260567121</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.141111397623539</v>
+        <v>0.1394244708626019</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>225</v>
@@ -978,19 +978,19 @@
         <v>227205</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>201335</v>
+        <v>201899</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>255826</v>
+        <v>258348</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1727649245569855</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1530936483843168</v>
+        <v>0.1535218154809221</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1945279961100309</v>
+        <v>0.196445179312467</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>350</v>
@@ -999,19 +999,19 @@
         <v>350842</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>319868</v>
+        <v>317361</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>387538</v>
+        <v>386277</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1494959283005854</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1362976383157208</v>
+        <v>0.1352291861749922</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1651322964172391</v>
+        <v>0.1645947024635278</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>389867</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>358984</v>
+        <v>360469</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>418974</v>
+        <v>421025</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3778799120076943</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3479458073492605</v>
+        <v>0.3493856170687337</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4060913965721206</v>
+        <v>0.408079870431687</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>496</v>
@@ -1049,19 +1049,19 @@
         <v>498567</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>462841</v>
+        <v>459897</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>531417</v>
+        <v>533099</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3791061143129616</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3519397395568467</v>
+        <v>0.3497014044219279</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4040848165261859</v>
+        <v>0.4053636349049711</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>889</v>
@@ -1070,19 +1070,19 @@
         <v>888434</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>836763</v>
+        <v>847216</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>934386</v>
+        <v>938116</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3785670475825214</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.356549449958738</v>
+        <v>0.3610036986217118</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3981471763723033</v>
+        <v>0.3997365071800516</v>
       </c>
     </row>
     <row r="9">
@@ -1099,19 +1099,19 @@
         <v>280596</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>254722</v>
+        <v>252779</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>310155</v>
+        <v>308419</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2719688125229519</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2468897803447618</v>
+        <v>0.2450063984353045</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3006186120334436</v>
+        <v>0.2989361821797667</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>223</v>
@@ -1120,19 +1120,19 @@
         <v>232669</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>205744</v>
+        <v>204697</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>263288</v>
+        <v>263113</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1769193768236858</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1564459126143929</v>
+        <v>0.1556499547377435</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2002017608368422</v>
+        <v>0.2000688722008768</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>505</v>
@@ -1141,19 +1141,19 @@
         <v>513265</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>472725</v>
+        <v>475432</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>554606</v>
+        <v>555169</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2187052944593783</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2014310700866253</v>
+        <v>0.2025845133281049</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2363207194264394</v>
+        <v>0.2365606860665161</v>
       </c>
     </row>
     <row r="10">
@@ -1245,19 +1245,19 @@
         <v>15827</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>9240</v>
+        <v>8457</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>28297</v>
+        <v>27920</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.009346486226676488</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.005456620868868706</v>
+        <v>0.004994209079304879</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01670977376081083</v>
+        <v>0.0164871909173961</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>27</v>
@@ -1266,19 +1266,19 @@
         <v>28044</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>18501</v>
+        <v>19647</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>40300</v>
+        <v>39807</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01766377761311405</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01165286344127327</v>
+        <v>0.01237486339062735</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02538295083738197</v>
+        <v>0.02507279678296175</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>40</v>
@@ -1287,19 +1287,19 @@
         <v>43872</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>31040</v>
+        <v>32114</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>59830</v>
+        <v>59668</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01337111129718853</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.009460358945369025</v>
+        <v>0.009787753263387676</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01823473824494145</v>
+        <v>0.01818542479618791</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>42612</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>31496</v>
+        <v>31403</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>57306</v>
+        <v>58174</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02516320712501475</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01859935710307593</v>
+        <v>0.01854407788653344</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03384026095432123</v>
+        <v>0.03435310287753512</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>73</v>
@@ -1337,19 +1337,19 @@
         <v>74501</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>58513</v>
+        <v>58580</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>93658</v>
+        <v>93790</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04692488302574127</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03685447102395761</v>
+        <v>0.03689697105106743</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05899047741908479</v>
+        <v>0.05907392512770484</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>116</v>
@@ -1358,19 +1358,19 @@
         <v>117113</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>95455</v>
+        <v>97679</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>138589</v>
+        <v>140388</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03569338844693365</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02909245357238193</v>
+        <v>0.02977032964527647</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04223884673093296</v>
+        <v>0.04278702460583051</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>197551</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>172107</v>
+        <v>172488</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>226317</v>
+        <v>227142</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1166584306835953</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1016330017305834</v>
+        <v>0.1018579244106357</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1336455438835776</v>
+        <v>0.1341325205820084</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>244</v>
@@ -1408,19 +1408,19 @@
         <v>246455</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>216843</v>
+        <v>218514</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>276554</v>
+        <v>277550</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1552300667392968</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1365793451894879</v>
+        <v>0.1376316965068001</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1741882324296455</v>
+        <v>0.1748156326739322</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>439</v>
@@ -1429,19 +1429,19 @@
         <v>444005</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>404345</v>
+        <v>403704</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>484120</v>
+        <v>482401</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1353227248952393</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1232351131378234</v>
+        <v>0.1230397615975042</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1475485869243153</v>
+        <v>0.1470247615013486</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>223514</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>195258</v>
+        <v>198736</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>250112</v>
+        <v>254904</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1319900610683401</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.11530421090031</v>
+        <v>0.1173580428087841</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1476970736061953</v>
+        <v>0.1505267204526045</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>283</v>
@@ -1479,19 +1479,19 @@
         <v>293425</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>262275</v>
+        <v>264770</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>325179</v>
+        <v>323859</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1848148000368563</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.165194352953061</v>
+        <v>0.1667662511010972</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2048148224271929</v>
+        <v>0.2039834344694316</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>496</v>
@@ -1500,19 +1500,19 @@
         <v>516939</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>473898</v>
+        <v>474897</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>561833</v>
+        <v>559605</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1575512394518</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1444333453658653</v>
+        <v>0.1447377926313159</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.171233706882274</v>
+        <v>0.1705548642995717</v>
       </c>
     </row>
     <row r="15">
@@ -1529,19 +1529,19 @@
         <v>780982</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>741245</v>
+        <v>739937</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>822256</v>
+        <v>825530</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.4611878897798588</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4377223149723671</v>
+        <v>0.4369501755769596</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4855612957888237</v>
+        <v>0.4874947798508781</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>630</v>
@@ -1550,19 +1550,19 @@
         <v>633464</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>596230</v>
+        <v>596783</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>677596</v>
+        <v>673376</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3989889214208847</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3755370851771719</v>
+        <v>0.3758853864784127</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4267857442932824</v>
+        <v>0.424127897587429</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1399</v>
@@ -1571,19 +1571,19 @@
         <v>1414445</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1360230</v>
+        <v>1356978</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>1471384</v>
+        <v>1469826</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.4310906482877903</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.4145671003263722</v>
+        <v>0.4135759505164406</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4484441475220763</v>
+        <v>0.4479694806961888</v>
       </c>
     </row>
     <row r="16">
@@ -1600,19 +1600,19 @@
         <v>432928</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>394112</v>
+        <v>399439</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>469568</v>
+        <v>471914</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2556539251165145</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2327322362808051</v>
+        <v>0.2358779290874099</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2772908457133533</v>
+        <v>0.2786763314546145</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>297</v>
@@ -1621,19 +1621,19 @@
         <v>311783</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>278172</v>
+        <v>281480</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>342599</v>
+        <v>345204</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1963775511641068</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1752071341734023</v>
+        <v>0.1772908922950178</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2157866312127384</v>
+        <v>0.2174275216873028</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>713</v>
@@ -1642,19 +1642,19 @@
         <v>744711</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>696634</v>
+        <v>692960</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>791266</v>
+        <v>792487</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2269708876210482</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2123182481371284</v>
+        <v>0.2111982361023534</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2411598342427876</v>
+        <v>0.2415318147033781</v>
       </c>
     </row>
     <row r="17">
@@ -1746,19 +1746,19 @@
         <v>2901</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8220</v>
+        <v>8669</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.005260393509802195</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.001630823104156508</v>
+        <v>0.001620014106579148</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.01490757135492459</v>
+        <v>0.01572078252410838</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>8</v>
@@ -1767,19 +1767,19 @@
         <v>9220</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>4018</v>
+        <v>4385</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>17388</v>
+        <v>18360</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01935231331258338</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.008433541637302599</v>
+        <v>0.009203431617216967</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03649765492296253</v>
+        <v>0.0385388768163359</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>11</v>
@@ -1788,19 +1788,19 @@
         <v>12120</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>6452</v>
+        <v>6559</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>21519</v>
+        <v>21967</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01179223504863534</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.006277246849643171</v>
+        <v>0.006381843640657968</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.02093621624223536</v>
+        <v>0.02137230611149006</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>16642</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>10112</v>
+        <v>10109</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>26398</v>
+        <v>26761</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03018106412109798</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01833799345992138</v>
+        <v>0.01833311257263992</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04787404629031759</v>
+        <v>0.04853203766342917</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>19</v>
@@ -1838,19 +1838,19 @@
         <v>20525</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>12770</v>
+        <v>12063</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>31669</v>
+        <v>32260</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04308292818499537</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02680406495701218</v>
+        <v>0.02532057349234109</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06647350045463403</v>
+        <v>0.06771522352997521</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>36</v>
@@ -1859,19 +1859,19 @@
         <v>37167</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>27504</v>
+        <v>26833</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>49911</v>
+        <v>50931</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03616129483489408</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.026759362726758</v>
+        <v>0.02610659110179399</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04856050832793546</v>
+        <v>0.04955230437657825</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>64862</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>50607</v>
+        <v>49881</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>82286</v>
+        <v>81106</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1176298727867379</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.09177748727186251</v>
+        <v>0.09046064527559752</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1492289470857348</v>
+        <v>0.1470884818273728</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>68</v>
@@ -1909,19 +1909,19 @@
         <v>71202</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>56866</v>
+        <v>55801</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>87690</v>
+        <v>88427</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1494547364537697</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.11936271715784</v>
+        <v>0.1171269758624514</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1840638699062602</v>
+        <v>0.1856098418226054</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>129</v>
@@ -1930,19 +1930,19 @@
         <v>136064</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>116516</v>
+        <v>115414</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>161020</v>
+        <v>158141</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1323812316773124</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1133618555476403</v>
+        <v>0.1122905100934005</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1566613214563294</v>
+        <v>0.1538608661906798</v>
       </c>
     </row>
     <row r="21">
@@ -1959,19 +1959,19 @@
         <v>71460</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>57500</v>
+        <v>55624</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>89745</v>
+        <v>88016</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1295962207257804</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1042789098984204</v>
+        <v>0.100877031819908</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1627553257632317</v>
+        <v>0.1596202978310974</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>69</v>
@@ -1980,19 +1980,19 @@
         <v>72359</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>57310</v>
+        <v>56476</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>88171</v>
+        <v>90242</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1518839299275382</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1202949077968657</v>
+        <v>0.1185450023213381</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1850735884022175</v>
+        <v>0.189420205891617</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>139</v>
@@ -2001,19 +2001,19 @@
         <v>143820</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>123862</v>
+        <v>122587</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>166567</v>
+        <v>165941</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1399269483205219</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1205096826011408</v>
+        <v>0.1192689752117363</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1620590125529113</v>
+        <v>0.1614495303922298</v>
       </c>
     </row>
     <row r="22">
@@ -2030,19 +2030,19 @@
         <v>232505</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>209916</v>
+        <v>208039</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>257669</v>
+        <v>253832</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4216570260781659</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3806900036944922</v>
+        <v>0.3772864049333581</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4672925565342502</v>
+        <v>0.460333524433101</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>198</v>
@@ -2051,19 +2051,19 @@
         <v>206370</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>184556</v>
+        <v>186654</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>227946</v>
+        <v>227970</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4331758595174613</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3873878665227272</v>
+        <v>0.3917919978580486</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4784632535639328</v>
+        <v>0.4785136059802629</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>418</v>
@@ -2072,19 +2072,19 @@
         <v>438875</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>404719</v>
+        <v>405743</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>471864</v>
+        <v>468738</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4269961988658822</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.393764344602116</v>
+        <v>0.3947604484792439</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4590920935187714</v>
+        <v>0.4560504555401756</v>
       </c>
     </row>
     <row r="23">
@@ -2101,19 +2101,19 @@
         <v>163038</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>139970</v>
+        <v>141961</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>185313</v>
+        <v>187836</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2956754227784157</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2538409089132788</v>
+        <v>0.2574509561148313</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3360727795470102</v>
+        <v>0.3406483464049614</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>90</v>
@@ -2122,19 +2122,19 @@
         <v>96736</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>80830</v>
+        <v>80305</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>115760</v>
+        <v>116568</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2030502326036521</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1696633073079442</v>
+        <v>0.168561730190563</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2429836729865038</v>
+        <v>0.2446789852759196</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>246</v>
@@ -2143,19 +2143,19 @@
         <v>259773</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>233753</v>
+        <v>231010</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>291101</v>
+        <v>289241</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2527420912527541</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2274258573660905</v>
+        <v>0.2247570128611361</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2832215561870261</v>
+        <v>0.281412227658883</v>
       </c>
     </row>
     <row r="24">
@@ -2247,19 +2247,19 @@
         <v>23349</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>13953</v>
+        <v>14870</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>35232</v>
+        <v>37005</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.007125978583401765</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.004258363323462191</v>
+        <v>0.004538350560397838</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01075266561161733</v>
+        <v>0.01129383321367042</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>48</v>
@@ -2268,19 +2268,19 @@
         <v>50577</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>38605</v>
+        <v>38015</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>67194</v>
+        <v>65661</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01496702151594532</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01142442884712913</v>
+        <v>0.0112497164617386</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01988474973918998</v>
+        <v>0.01943095169603674</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>69</v>
@@ -2289,19 +2289,19 @@
         <v>73925</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>58068</v>
+        <v>58177</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>93964</v>
+        <v>95977</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01110696772454496</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.00872451568999864</v>
+        <v>0.008740862175213426</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01411770913065671</v>
+        <v>0.01442014065401035</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>103004</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>85198</v>
+        <v>82784</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>124269</v>
+        <v>123750</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03143671340055149</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02600225715496302</v>
+        <v>0.0252656848338591</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03792695288505268</v>
+        <v>0.03776847758918906</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>158</v>
@@ -2339,19 +2339,19 @@
         <v>163424</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>138414</v>
+        <v>138217</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>190926</v>
+        <v>192992</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.0483616801363068</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.04096050966648065</v>
+        <v>0.04090230624883372</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.05650047435286946</v>
+        <v>0.05711188033095261</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>262</v>
@@ -2360,19 +2360,19 @@
         <v>266427</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>234478</v>
+        <v>238190</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>299951</v>
+        <v>301954</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.04002971682737941</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.03522945447172209</v>
+        <v>0.03578719747900415</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.04506653134689534</v>
+        <v>0.04536745885523819</v>
       </c>
     </row>
     <row r="27">
@@ -2389,19 +2389,19 @@
         <v>451664</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>411650</v>
+        <v>415329</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>492363</v>
+        <v>494220</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1378478548390464</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1256354201756668</v>
+        <v>0.1267583526519636</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1502689319074029</v>
+        <v>0.1508357606727964</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>580</v>
@@ -2410,19 +2410,19 @@
         <v>592618</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>549926</v>
+        <v>548951</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>636740</v>
+        <v>638552</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1753724437646857</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1627386572559333</v>
+        <v>0.1624502131744753</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1884292635540717</v>
+        <v>0.1889655802460246</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1025</v>
@@ -2431,19 +2431,19 @@
         <v>1044283</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>982383</v>
+        <v>990147</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1108761</v>
+        <v>1107580</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1568995272152839</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1475994053361298</v>
+        <v>0.1487657935319862</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1665871488043363</v>
+        <v>0.1664096881093218</v>
       </c>
     </row>
     <row r="28">
@@ -2460,19 +2460,19 @@
         <v>418611</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>382967</v>
+        <v>382300</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>457499</v>
+        <v>462606</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1277599536227453</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1168815083087132</v>
+        <v>0.1166777307018285</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1396284365477495</v>
+        <v>0.1411871628656476</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>577</v>
@@ -2481,19 +2481,19 @@
         <v>592990</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>548672</v>
+        <v>544955</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>633963</v>
+        <v>636174</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1754825267551647</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1623676044222727</v>
+        <v>0.1612675307898363</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1876076858124182</v>
+        <v>0.1882620210491936</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>985</v>
@@ -2502,19 +2502,19 @@
         <v>1011601</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>953565</v>
+        <v>956591</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1069547</v>
+        <v>1071838</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1519892617724387</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1432696105476904</v>
+        <v>0.1437242169632176</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1606953842818251</v>
+        <v>0.1610395518055131</v>
       </c>
     </row>
     <row r="29">
@@ -2531,19 +2531,19 @@
         <v>1403354</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1347197</v>
+        <v>1344353</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1458514</v>
+        <v>1457618</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4283031195363797</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4111640853805668</v>
+        <v>0.4102961839506133</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4451379444070053</v>
+        <v>0.4448646923029057</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1324</v>
@@ -2552,19 +2552,19 @@
         <v>1338401</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1284180</v>
+        <v>1279402</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1402919</v>
+        <v>1391492</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3960707503602088</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3800251605799645</v>
+        <v>0.3786111526435967</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4151634183131561</v>
+        <v>0.4117817774986994</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2706</v>
@@ -2573,19 +2573,19 @@
         <v>2741755</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2663014</v>
+        <v>2661134</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2824577</v>
+        <v>2821748</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4119383689811841</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4001078389440024</v>
+        <v>0.3998252847098337</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4243819886151955</v>
+        <v>0.4239569818435952</v>
       </c>
     </row>
     <row r="30">
@@ -2602,19 +2602,19 @@
         <v>876562</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>822372</v>
+        <v>826281</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>925479</v>
+        <v>931566</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2675263800178754</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2509875915472194</v>
+        <v>0.2521808070059174</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2824560296566471</v>
+        <v>0.2843136044598311</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>610</v>
@@ -2623,19 +2623,19 @@
         <v>641188</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>594053</v>
+        <v>597404</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>687440</v>
+        <v>692658</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1897455774676887</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1757971340492674</v>
+        <v>0.1767887899132157</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2034330464932181</v>
+        <v>0.2049771143507155</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1464</v>
@@ -2644,19 +2644,19 @@
         <v>1517750</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1452828</v>
+        <v>1447199</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1591135</v>
+        <v>1583999</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.228036157479169</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2182818924598263</v>
+        <v>0.2174361854082611</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2390620186881495</v>
+        <v>0.2379899028705547</v>
       </c>
     </row>
     <row r="31">
@@ -2987,19 +2987,19 @@
         <v>25064</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16163</v>
+        <v>14800</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>37104</v>
+        <v>35923</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02576843912320202</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0166171599134224</v>
+        <v>0.01521572011754405</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03814719277067204</v>
+        <v>0.03693297685382039</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>53</v>
@@ -3008,19 +3008,19 @@
         <v>57446</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>44950</v>
+        <v>43897</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>76024</v>
+        <v>74918</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04300492920230001</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03365045344058328</v>
+        <v>0.03286195864853757</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05691261844497524</v>
+        <v>0.0560842518054912</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>76</v>
@@ -3029,19 +3029,19 @@
         <v>82510</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>64752</v>
+        <v>65918</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>103386</v>
+        <v>103566</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03574248643594732</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02805011066037618</v>
+        <v>0.02855524851097452</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0447858934375826</v>
+        <v>0.04486372155251742</v>
       </c>
     </row>
     <row r="5">
@@ -3058,19 +3058,19 @@
         <v>44092</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>31857</v>
+        <v>31840</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>58238</v>
+        <v>58769</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.045332324365791</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03275251170167891</v>
+        <v>0.03273555916125476</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05987597662556587</v>
+        <v>0.06042173190571736</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>72</v>
@@ -3079,19 +3079,19 @@
         <v>76927</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>59782</v>
+        <v>61207</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>96271</v>
+        <v>94421</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05758858718808183</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04475318165780238</v>
+        <v>0.04582037830267517</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07206953998827882</v>
+        <v>0.07068465702022789</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>113</v>
@@ -3100,19 +3100,19 @@
         <v>121020</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>102112</v>
+        <v>99251</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>145474</v>
+        <v>145347</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05242451916333921</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04423400068173394</v>
+        <v>0.04299470562954077</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06301790242734821</v>
+        <v>0.06296296054226475</v>
       </c>
     </row>
     <row r="6">
@@ -3129,19 +3129,19 @@
         <v>137068</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>114524</v>
+        <v>115686</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>158326</v>
+        <v>158298</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1409226079857527</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1177447241670875</v>
+        <v>0.1189394166044879</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1627786643025776</v>
+        <v>0.1627494332617682</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>322</v>
@@ -3150,19 +3150,19 @@
         <v>346188</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>312064</v>
+        <v>316907</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>379135</v>
+        <v>378232</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2591606800310509</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2336147620821588</v>
+        <v>0.23724049934149</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2838246936282471</v>
+        <v>0.2831488131844964</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>448</v>
@@ -3171,19 +3171,19 @@
         <v>483256</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>442164</v>
+        <v>443417</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>521975</v>
+        <v>525162</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2093421133105459</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1915413303123884</v>
+        <v>0.1920841380154353</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2261145803090624</v>
+        <v>0.227495111039757</v>
       </c>
     </row>
     <row r="7">
@@ -3200,19 +3200,19 @@
         <v>124102</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>102674</v>
+        <v>103932</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>146045</v>
+        <v>147721</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1275926459067051</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.105561516587018</v>
+        <v>0.1068551007970182</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1501525133609857</v>
+        <v>0.1518755809795083</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>152</v>
@@ -3221,19 +3221,19 @@
         <v>160350</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>136848</v>
+        <v>136661</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>182505</v>
+        <v>184516</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1200397069427224</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1024457945897269</v>
+        <v>0.1023059291445366</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1366257122767375</v>
+        <v>0.1381305732204798</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>269</v>
@@ -3242,19 +3242,19 @@
         <v>284452</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>254851</v>
+        <v>257707</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>321832</v>
+        <v>319427</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1232220710256628</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1103990418559777</v>
+        <v>0.1116361103418804</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1394143723532663</v>
+        <v>0.1383727262101391</v>
       </c>
     </row>
     <row r="8">
@@ -3271,19 +3271,19 @@
         <v>296173</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>266862</v>
+        <v>269760</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>326695</v>
+        <v>324718</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3045022284917328</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2743671648543267</v>
+        <v>0.2773461406155905</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.335882844320359</v>
+        <v>0.3338504295254779</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>383</v>
@@ -3292,19 +3292,19 @@
         <v>410372</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>374349</v>
+        <v>377190</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>442831</v>
+        <v>445120</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3072090886408336</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2802417704508576</v>
+        <v>0.2823690623106543</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3315087430046843</v>
+        <v>0.3332218086088905</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>657</v>
@@ -3313,19 +3313,19 @@
         <v>706545</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>663220</v>
+        <v>660335</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>748827</v>
+        <v>752473</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3060685770390427</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2873004697130773</v>
+        <v>0.2860506757854145</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.324384794898132</v>
+        <v>0.3259642113731761</v>
       </c>
     </row>
     <row r="9">
@@ -3342,19 +3342,19 @@
         <v>346147</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>318743</v>
+        <v>318573</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>379571</v>
+        <v>376726</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3558817541268164</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3277070146466307</v>
+        <v>0.327532658505688</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3902453874989765</v>
+        <v>0.3873209626169272</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>263</v>
@@ -3363,19 +3363,19 @@
         <v>284523</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>254004</v>
+        <v>254349</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>313678</v>
+        <v>316539</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2129970079950112</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1901501084584393</v>
+        <v>0.1904086676276321</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2348229664837214</v>
+        <v>0.236965114241502</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>588</v>
@@ -3384,19 +3384,19 @@
         <v>630670</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>589335</v>
+        <v>588972</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>674340</v>
+        <v>676536</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.273200233025462</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.255294358315626</v>
+        <v>0.2551370949410719</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2921178128921193</v>
+        <v>0.2930688465153222</v>
       </c>
     </row>
     <row r="10">
@@ -3488,19 +3488,19 @@
         <v>38483</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>26861</v>
+        <v>26894</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>52635</v>
+        <v>52393</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01960601503944466</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01368506845955026</v>
+        <v>0.01370173135573518</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02681572639161046</v>
+        <v>0.02669243148552819</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>60</v>
@@ -3509,19 +3509,19 @@
         <v>66167</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>50320</v>
+        <v>49570</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>87210</v>
+        <v>83700</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03774778919307532</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02870742994487917</v>
+        <v>0.02827962841373614</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04975296433034548</v>
+        <v>0.04775078329884006</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>97</v>
@@ -3530,19 +3530,19 @@
         <v>104650</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>86616</v>
+        <v>86971</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>125166</v>
+        <v>126428</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02816431830781669</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02331085088122754</v>
+        <v>0.02340658348192275</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03368597443887545</v>
+        <v>0.03402552771753937</v>
       </c>
     </row>
     <row r="12">
@@ -3559,19 +3559,19 @@
         <v>47656</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>35559</v>
+        <v>36195</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>63213</v>
+        <v>62480</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02427950707256739</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01811639235403366</v>
+        <v>0.01844035471147052</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03220531123931993</v>
+        <v>0.03183184113720542</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>62</v>
@@ -3580,19 +3580,19 @@
         <v>67661</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>52830</v>
+        <v>52681</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>86825</v>
+        <v>85082</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0386005163552729</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0301396053099208</v>
+        <v>0.0300544219550932</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04953359707922433</v>
+        <v>0.04853877055826825</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>108</v>
@@ -3601,19 +3601,19 @@
         <v>115318</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>93997</v>
+        <v>95465</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>135897</v>
+        <v>138287</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03103538108536544</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02529737509029995</v>
+        <v>0.02569239068048204</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0365738964028226</v>
+        <v>0.03721718654185297</v>
       </c>
     </row>
     <row r="13">
@@ -3630,19 +3630,19 @@
         <v>246039</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>217947</v>
+        <v>217345</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>279024</v>
+        <v>276145</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.125349248581117</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1110374681241115</v>
+        <v>0.1107307786663906</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1421544455554699</v>
+        <v>0.1406875683285881</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>328</v>
@@ -3651,19 +3651,19 @@
         <v>351684</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>318691</v>
+        <v>319533</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>390055</v>
+        <v>386948</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2006348236940023</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1818124333519109</v>
+        <v>0.1822923855602619</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2225248940236645</v>
+        <v>0.2207528884313769</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>561</v>
@@ -3672,19 +3672,19 @@
         <v>597723</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>550359</v>
+        <v>549434</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>649788</v>
+        <v>650127</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1608648920950083</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.148117919514421</v>
+        <v>0.1478688977068368</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1748770890477734</v>
+        <v>0.1749683333996542</v>
       </c>
     </row>
     <row r="14">
@@ -3701,19 +3701,19 @@
         <v>252511</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>224675</v>
+        <v>221672</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>284358</v>
+        <v>284791</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1286464628157896</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1144650279370755</v>
+        <v>0.112935070555855</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1448717540776061</v>
+        <v>0.1450922473774316</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>234</v>
@@ -3722,19 +3722,19 @@
         <v>252287</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>224284</v>
+        <v>221625</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>287304</v>
+        <v>284181</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1439289749148255</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1279534104900042</v>
+        <v>0.1264362198453002</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1639058324782487</v>
+        <v>0.162124291043048</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>473</v>
@@ -3743,19 +3743,19 @@
         <v>504798</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>461590</v>
+        <v>461448</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>549298</v>
+        <v>551620</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1358559216117442</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1242275738635527</v>
+        <v>0.1241891924459512</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1478321925013739</v>
+        <v>0.1484573582000174</v>
       </c>
     </row>
     <row r="15">
@@ -3772,19 +3772,19 @@
         <v>640403</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>596519</v>
+        <v>597561</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>685564</v>
+        <v>683896</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3262659144277447</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3039080223600286</v>
+        <v>0.3044389945609345</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3492738827557686</v>
+        <v>0.348424234795312</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>434</v>
@@ -3793,19 +3793,19 @@
         <v>460362</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>421432</v>
+        <v>422695</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>495499</v>
+        <v>496628</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2626350157879123</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2404253995481563</v>
+        <v>0.2411464516486064</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2826804344298355</v>
+        <v>0.283324936807455</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1037</v>
@@ -3814,19 +3814,19 @@
         <v>1100765</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1042928</v>
+        <v>1041882</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>1158169</v>
+        <v>1154705</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.296248313988719</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2806826037068043</v>
+        <v>0.2804010827472725</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3116974790059715</v>
+        <v>0.3107652383838198</v>
       </c>
     </row>
     <row r="16">
@@ -3843,19 +3843,19 @@
         <v>737734</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>693434</v>
+        <v>696316</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>777645</v>
+        <v>783315</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3758528520633367</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3532833181585271</v>
+        <v>0.354751801922185</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3961861925969702</v>
+        <v>0.3990752447882354</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>513</v>
@@ -3864,19 +3864,19 @@
         <v>554697</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>519441</v>
+        <v>516676</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>595903</v>
+        <v>594504</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3164528800549117</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2963392889983699</v>
+        <v>0.2947622728756202</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3399609206580698</v>
+        <v>0.3391628779360298</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1210</v>
@@ -3885,19 +3885,19 @@
         <v>1292430</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1229537</v>
+        <v>1227566</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1352406</v>
+        <v>1348328</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3478311729113463</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3309047434960689</v>
+        <v>0.3303741305137546</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3639722831648681</v>
+        <v>0.3628748899653591</v>
       </c>
     </row>
     <row r="17">
@@ -3989,19 +3989,19 @@
         <v>6095</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2116</v>
+        <v>2045</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>13278</v>
+        <v>12399</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01266708694486078</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.004396841809558169</v>
+        <v>0.004250342477926964</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02759495442654242</v>
+        <v>0.02576690947171172</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>11</v>
@@ -4010,19 +4010,19 @@
         <v>12017</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6755</v>
+        <v>6418</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>21319</v>
+        <v>20531</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02626201179269682</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01476239291335673</v>
+        <v>0.01402629511432549</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04659234072330222</v>
+        <v>0.04486976946495701</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>17</v>
@@ -4031,19 +4031,19 @@
         <v>18112</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>11367</v>
+        <v>10311</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>28464</v>
+        <v>28132</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01929355540563793</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01210840752326199</v>
+        <v>0.01098409590452632</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03032165813052093</v>
+        <v>0.02996808076214457</v>
       </c>
     </row>
     <row r="19">
@@ -4060,19 +4060,19 @@
         <v>7598</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3062</v>
+        <v>2981</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18702</v>
+        <v>18350</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01578944526573033</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006363229542116369</v>
+        <v>0.006196203150449908</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03886675622663992</v>
+        <v>0.03813492466962454</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>16</v>
@@ -4081,19 +4081,19 @@
         <v>17193</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9526</v>
+        <v>10043</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>26980</v>
+        <v>27955</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03757493616517175</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02081780713512265</v>
+        <v>0.02194938968903589</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05896347358801826</v>
+        <v>0.06109433282128444</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>21</v>
@@ -4102,19 +4102,19 @@
         <v>24791</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>15568</v>
+        <v>14944</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>39039</v>
+        <v>36982</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02640817762089114</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01658334786246986</v>
+        <v>0.01591927668094028</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04158644952191563</v>
+        <v>0.03939506471095282</v>
       </c>
     </row>
     <row r="20">
@@ -4131,19 +4131,19 @@
         <v>56006</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>41500</v>
+        <v>42383</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>72087</v>
+        <v>73202</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1163926539824143</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08624582564893885</v>
+        <v>0.08808131326098384</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1498117725251056</v>
+        <v>0.1521300442380857</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>54</v>
@@ -4152,19 +4152,19 @@
         <v>57850</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>43679</v>
+        <v>44267</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>73257</v>
+        <v>74668</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1264303822961721</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09545946377558241</v>
+        <v>0.09674384971538066</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1601012975609385</v>
+        <v>0.1631840482634513</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>103</v>
@@ -4173,19 +4173,19 @@
         <v>113856</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>93394</v>
+        <v>92485</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>137251</v>
+        <v>137219</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1212852658087719</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09948766877034039</v>
+        <v>0.0985194945115324</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1462068414769768</v>
+        <v>0.1461724005538512</v>
       </c>
     </row>
     <row r="21">
@@ -4202,19 +4202,19 @@
         <v>71110</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>55251</v>
+        <v>54480</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>89539</v>
+        <v>89943</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1477817221644845</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1148236119837144</v>
+        <v>0.1132220352919105</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1860825167486508</v>
+        <v>0.1869220484669849</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>51</v>
@@ -4223,19 +4223,19 @@
         <v>55667</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>42272</v>
+        <v>42829</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>70681</v>
+        <v>73056</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1216582160241172</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.09238347518806157</v>
+        <v>0.09360154871422763</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1544707729314201</v>
+        <v>0.1596616987328524</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>113</v>
@@ -4244,19 +4244,19 @@
         <v>126777</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>103400</v>
+        <v>105072</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>152023</v>
+        <v>152823</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1350485447867797</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1101466106029576</v>
+        <v>0.1119281118151405</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1619424838333111</v>
+        <v>0.1627941378203477</v>
       </c>
     </row>
     <row r="22">
@@ -4273,19 +4273,19 @@
         <v>146831</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>127999</v>
+        <v>126526</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>168793</v>
+        <v>168649</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3051478581174856</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2660105054400404</v>
+        <v>0.2629487263040181</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3507893440761454</v>
+        <v>0.3504887556111712</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>135</v>
@@ -4294,19 +4294,19 @@
         <v>153361</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>133523</v>
+        <v>131881</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>177323</v>
+        <v>173391</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.335166073253631</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2918109242808534</v>
+        <v>0.2882229809953304</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3875338455162943</v>
+        <v>0.3789408220226939</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>272</v>
@@ -4315,19 +4315,19 @@
         <v>300192</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>270760</v>
+        <v>272150</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>332502</v>
+        <v>334661</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3197794032032352</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2884265240209217</v>
+        <v>0.2899075678847625</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3541973463814965</v>
+        <v>0.3564972757612516</v>
       </c>
     </row>
     <row r="23">
@@ -4344,19 +4344,19 @@
         <v>193541</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>170405</v>
+        <v>169333</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>216295</v>
+        <v>216913</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4022212335250245</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.354139970573922</v>
+        <v>0.3519102346578911</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4495094778683406</v>
+        <v>0.450792441797049</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>144</v>
@@ -4365,19 +4365,19 @@
         <v>161479</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>139022</v>
+        <v>140782</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>182341</v>
+        <v>183883</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3529083804682111</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3038297752889195</v>
+        <v>0.3076757164666703</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3985020000396041</v>
+        <v>0.4018721304506366</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>323</v>
@@ -4386,19 +4386,19 @@
         <v>355020</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>318433</v>
+        <v>324466</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>384964</v>
+        <v>387402</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.378185053174684</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3392102752013796</v>
+        <v>0.3456366272875927</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4100822214182585</v>
+        <v>0.4126789779222585</v>
       </c>
     </row>
     <row r="24">
@@ -4490,19 +4490,19 @@
         <v>69642</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>54464</v>
+        <v>56093</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>88194</v>
+        <v>87846</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02038308371032767</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01594088456323369</v>
+        <v>0.01641747932054515</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02581298309495918</v>
+        <v>0.02571109617655168</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>124</v>
@@ -4511,19 +4511,19 @@
         <v>135629</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>112267</v>
+        <v>113752</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>161662</v>
+        <v>160097</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03824606823459925</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03165799924691805</v>
+        <v>0.03207697633054479</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04558700805527695</v>
+        <v>0.0451458058621908</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>190</v>
@@ -4532,19 +4532,19 @@
         <v>205271</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>177063</v>
+        <v>177832</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>236092</v>
+        <v>236431</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02948078852545945</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0254295512623228</v>
+        <v>0.02553992871627742</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03390721923247322</v>
+        <v>0.03395588813846202</v>
       </c>
     </row>
     <row r="26">
@@ -4561,19 +4561,19 @@
         <v>99346</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>80902</v>
+        <v>81446</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>121233</v>
+        <v>122646</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02907709065078266</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02367886690416429</v>
+        <v>0.02383807524623735</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03548285641720084</v>
+        <v>0.03589656213660068</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>150</v>
@@ -4582,19 +4582,19 @@
         <v>161781</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>138054</v>
+        <v>137087</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>186706</v>
+        <v>189048</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.04562067907698255</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03892985904984446</v>
+        <v>0.03865699127805072</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.05264917795622518</v>
+        <v>0.05330950957141255</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>242</v>
@@ -4603,19 +4603,19 @@
         <v>261128</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>229954</v>
+        <v>230205</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>297665</v>
+        <v>297136</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03750282062217077</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.03302562675141676</v>
+        <v>0.03306172341137202</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.04275022028341164</v>
+        <v>0.04267419970729903</v>
       </c>
     </row>
     <row r="27">
@@ -4632,19 +4632,19 @@
         <v>439113</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>399542</v>
+        <v>396356</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>479028</v>
+        <v>476875</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1285212472574822</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1169395627394626</v>
+        <v>0.1160069624939857</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1402040021855987</v>
+        <v>0.1395738143308587</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>704</v>
@@ -4653,19 +4653,19 @@
         <v>755723</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>702040</v>
+        <v>709279</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>805657</v>
+        <v>806972</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2131060192642034</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1979678911927259</v>
+        <v>0.2000091125688337</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2271868342169945</v>
+        <v>0.2275577186952909</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1112</v>
@@ -4674,19 +4674,19 @@
         <v>1194836</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1124439</v>
+        <v>1130254</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1258867</v>
+        <v>1255984</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1716006826411251</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1614904370292514</v>
+        <v>0.1623255677814751</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1807967465999341</v>
+        <v>0.1803827758771152</v>
       </c>
     </row>
     <row r="28">
@@ -4703,19 +4703,19 @@
         <v>447723</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>408033</v>
+        <v>409756</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>491199</v>
+        <v>493330</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1310413620385378</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1194246711151462</v>
+        <v>0.119929046400712</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1437660994888834</v>
+        <v>0.1443897300866033</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>437</v>
@@ -4724,19 +4724,19 @@
         <v>468304</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>423931</v>
+        <v>425152</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>510854</v>
+        <v>508303</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1320567083095983</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.119544049982407</v>
+        <v>0.1198883848882347</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1440553641942656</v>
+        <v>0.1433360021501763</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>855</v>
@@ -4745,19 +4745,19 @@
         <v>916026</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>860823</v>
+        <v>863616</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>978074</v>
+        <v>973949</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.131558482827995</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1236302740518424</v>
+        <v>0.1240312966523776</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1404696271679399</v>
+        <v>0.13987718958693</v>
       </c>
     </row>
     <row r="29">
@@ -4774,19 +4774,19 @@
         <v>1083407</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1026665</v>
+        <v>1029503</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1138709</v>
+        <v>1146201</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3170961284399518</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3004886614087662</v>
+        <v>0.3013190452638634</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.333282109276997</v>
+        <v>0.3354746669129014</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>952</v>
@@ -4795,19 +4795,19 @@
         <v>1024095</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>974457</v>
+        <v>966051</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1083564</v>
+        <v>1082077</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2887839437973332</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2747867692647441</v>
+        <v>0.2724161408498846</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3055537065879421</v>
+        <v>0.3051343177849821</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1966</v>
@@ -4816,19 +4816,19 @@
         <v>2107502</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2031170</v>
+        <v>2036091</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2187467</v>
+        <v>2190645</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3026765952314857</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2917139216065994</v>
+        <v>0.2924205880783485</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3141610411357355</v>
+        <v>0.3146174830147136</v>
       </c>
     </row>
     <row r="30">
@@ -4845,19 +4845,19 @@
         <v>1277422</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1219016</v>
+        <v>1217553</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1336368</v>
+        <v>1338686</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.373881087902918</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3567865186807354</v>
+        <v>0.3563582579575895</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3911337782481921</v>
+        <v>0.3918120120529278</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>920</v>
@@ -4866,19 +4866,19 @@
         <v>1000699</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>949518</v>
+        <v>947349</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1053912</v>
+        <v>1056062</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2821865813172832</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2677541130935886</v>
+        <v>0.2671425855336267</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2971920736421517</v>
+        <v>0.2977983315036159</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2121</v>
@@ -4887,19 +4887,19 @@
         <v>2278121</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2195438</v>
+        <v>2204546</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>2355897</v>
+        <v>2359361</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3271806301517641</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.315305810405177</v>
+        <v>0.3166138943214157</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3383507881843705</v>
+        <v>0.3388482601328393</v>
       </c>
     </row>
     <row r="31">
@@ -5230,19 +5230,19 @@
         <v>9808</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5430</v>
+        <v>4960</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17900</v>
+        <v>17848</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01300134307256227</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007197871185009163</v>
+        <v>0.006575718540541397</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02372959528928506</v>
+        <v>0.02365976286986602</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>29</v>
@@ -5251,19 +5251,19 @@
         <v>31790</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>22213</v>
+        <v>21645</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>45157</v>
+        <v>44300</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0320286299726748</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02237961149960204</v>
+        <v>0.02180724395361829</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0454961350937781</v>
+        <v>0.04463318555367824</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>39</v>
@@ -5272,19 +5272,19 @@
         <v>41597</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>30137</v>
+        <v>30422</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>56100</v>
+        <v>57091</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02381222013763973</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01725162779107999</v>
+        <v>0.01741496402728068</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03211447828195637</v>
+        <v>0.03268127329153801</v>
       </c>
     </row>
     <row r="5">
@@ -5301,19 +5301,19 @@
         <v>24074</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>16337</v>
+        <v>15827</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>34420</v>
+        <v>34038</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03191313616960738</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02165653451215997</v>
+        <v>0.02098160426990591</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04562832400423262</v>
+        <v>0.04512200012635338</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>46</v>
@@ -5322,19 +5322,19 @@
         <v>54224</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>40755</v>
+        <v>40199</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>72355</v>
+        <v>71308</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05463170341781418</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0410608435633418</v>
+        <v>0.04050054502628527</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07289806778416345</v>
+        <v>0.07184326842952614</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>72</v>
@@ -5343,19 +5343,19 @@
         <v>78298</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>60964</v>
+        <v>61103</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>96910</v>
+        <v>97627</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04482131582256706</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03489856298548001</v>
+        <v>0.03497841229546879</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05547594456027272</v>
+        <v>0.05588631843019245</v>
       </c>
     </row>
     <row r="6">
@@ -5372,19 +5372,19 @@
         <v>120051</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>100719</v>
+        <v>100020</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>139682</v>
+        <v>139774</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1591461191705558</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1335184719844962</v>
+        <v>0.1325914613265801</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1851691875301406</v>
+        <v>0.1852918256429475</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>175</v>
@@ -5393,19 +5393,19 @@
         <v>195792</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>170618</v>
+        <v>166547</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>221911</v>
+        <v>220890</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1972629706435387</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1718993655052579</v>
+        <v>0.1677978934960553</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2235777790033235</v>
+        <v>0.2225490317573126</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>296</v>
@@ -5414,19 +5414,19 @@
         <v>315844</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>285789</v>
+        <v>284385</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>351311</v>
+        <v>349233</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1808032580756195</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1635987508184015</v>
+        <v>0.1627950314823055</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2011066712787897</v>
+        <v>0.1999168691894873</v>
       </c>
     </row>
     <row r="7">
@@ -5443,19 +5443,19 @@
         <v>156127</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>135061</v>
+        <v>134033</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>179083</v>
+        <v>176661</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2069703186425735</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1790440430544285</v>
+        <v>0.1776808077035126</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2374010355239407</v>
+        <v>0.2341905242314828</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>208</v>
@@ -5464,19 +5464,19 @@
         <v>225441</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>198535</v>
+        <v>200460</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>253912</v>
+        <v>254783</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2271347360198073</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2000267338694134</v>
+        <v>0.2019662967573037</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2558197267071047</v>
+        <v>0.2566973872491505</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>371</v>
@@ -5485,19 +5485,19 @@
         <v>381569</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>349035</v>
+        <v>347571</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>415720</v>
+        <v>412731</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2184272877048783</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1998037144877784</v>
+        <v>0.1989652128053158</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2379769737367589</v>
+        <v>0.2362662744239534</v>
       </c>
     </row>
     <row r="8">
@@ -5514,19 +5514,19 @@
         <v>225654</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>202583</v>
+        <v>200160</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>250081</v>
+        <v>251365</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2991381909475644</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2685544776587576</v>
+        <v>0.2653420355513399</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.331520144439906</v>
+        <v>0.33322177665372</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>231</v>
@@ -5535,19 +5535,19 @@
         <v>261891</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>234077</v>
+        <v>234138</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>291668</v>
+        <v>289577</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2638586248415638</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2358356854471524</v>
+        <v>0.2358970937065192</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2938587622663175</v>
+        <v>0.2917527084475086</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>461</v>
@@ -5556,19 +5556,19 @@
         <v>487545</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>447947</v>
+        <v>452059</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>527134</v>
+        <v>526699</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2790931338627842</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2564252820180697</v>
+        <v>0.2587790629797895</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3017555757692428</v>
+        <v>0.3015064594920026</v>
       </c>
     </row>
     <row r="9">
@@ -5585,19 +5585,19 @@
         <v>218633</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>194810</v>
+        <v>194146</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>244684</v>
+        <v>244502</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2898308919971366</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2582495339021006</v>
+        <v>0.2573698500449628</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3243655969671009</v>
+        <v>0.3241241110549935</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>201</v>
@@ -5606,19 +5606,19 @@
         <v>223405</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>195878</v>
+        <v>197338</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>252175</v>
+        <v>253519</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2250833351046012</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1973490074603256</v>
+        <v>0.198820669378408</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2540689889479676</v>
+        <v>0.2554234900179872</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>413</v>
@@ -5627,19 +5627,19 @@
         <v>442038</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>404753</v>
+        <v>406631</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>478635</v>
+        <v>479972</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2530427843965112</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2316993388119169</v>
+        <v>0.232774397169174</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2739925406582324</v>
+        <v>0.2747577293057825</v>
       </c>
     </row>
     <row r="10">
@@ -5731,19 +5731,19 @@
         <v>26227</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>17007</v>
+        <v>17377</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>38715</v>
+        <v>40383</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.012644254925192</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.00819936218826269</v>
+        <v>0.00837773398011493</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01866485421905663</v>
+        <v>0.01946919633057542</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>39</v>
@@ -5752,19 +5752,19 @@
         <v>41524</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>29782</v>
+        <v>30585</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>56962</v>
+        <v>55367</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02090565262037062</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01499388642550454</v>
+        <v>0.01539821659554426</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02867811123600277</v>
+        <v>0.02787528179784683</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>63</v>
@@ -5773,19 +5773,19 @@
         <v>67751</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>51629</v>
+        <v>51658</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>84620</v>
+        <v>85525</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01668546911644034</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01271502337592614</v>
+        <v>0.01272230147592852</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02084009022684942</v>
+        <v>0.02106275516712724</v>
       </c>
     </row>
     <row r="12">
@@ -5802,19 +5802,19 @@
         <v>26248</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>16954</v>
+        <v>16928</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>39460</v>
+        <v>39692</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01265467500306968</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.008173886633042011</v>
+        <v>0.008161397033039974</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01902402020861901</v>
+        <v>0.01913592295965893</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>49</v>
@@ -5823,19 +5823,19 @@
         <v>51756</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>38811</v>
+        <v>39077</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>68690</v>
+        <v>67736</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02605734526933316</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01953992716063012</v>
+        <v>0.01967378387566516</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03458295318301207</v>
+        <v>0.03410239710634635</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>72</v>
@@ -5844,19 +5844,19 @@
         <v>78005</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>61040</v>
+        <v>59579</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>98074</v>
+        <v>96657</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01921083696005378</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01503288061557177</v>
+        <v>0.01467299833539534</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02415327559051034</v>
+        <v>0.02380453135800559</v>
       </c>
     </row>
     <row r="13">
@@ -5873,19 +5873,19 @@
         <v>172540</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>148298</v>
+        <v>147419</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>200036</v>
+        <v>198477</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08318321895552502</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0714961528572772</v>
+        <v>0.07107205721796488</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09643949386717623</v>
+        <v>0.09568803677196935</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>201</v>
@@ -5894,19 +5894,19 @@
         <v>210464</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>185803</v>
+        <v>184929</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>242326</v>
+        <v>238286</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.105960317256697</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09354469806034964</v>
+        <v>0.09310454014371412</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1220017177120192</v>
+        <v>0.1199677999443997</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>362</v>
@@ -5915,19 +5915,19 @@
         <v>383003</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>349750</v>
+        <v>347809</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>428208</v>
+        <v>419970</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09432505430668767</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08613537943401105</v>
+        <v>0.08565740247072615</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1054579355612322</v>
+        <v>0.1034291101831527</v>
       </c>
     </row>
     <row r="14">
@@ -5944,19 +5944,19 @@
         <v>299052</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>267486</v>
+        <v>267202</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>330101</v>
+        <v>330255</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.144176050927235</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1289578739774443</v>
+        <v>0.1288208124737568</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1591450993360545</v>
+        <v>0.1592195418017788</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>305</v>
@@ -5965,19 +5965,19 @@
         <v>322879</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>287740</v>
+        <v>290729</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>355879</v>
+        <v>356221</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1625568763226228</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1448657167499269</v>
+        <v>0.1463707580997638</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1791714222789362</v>
+        <v>0.1793435083384921</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>593</v>
@@ -5986,19 +5986,19 @@
         <v>621931</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>572936</v>
+        <v>572812</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>663747</v>
+        <v>664005</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1531673687617522</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1411011737779625</v>
+        <v>0.1410705182903265</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1634659050620153</v>
+        <v>0.1635294427831794</v>
       </c>
     </row>
     <row r="15">
@@ -6015,19 +6015,19 @@
         <v>691572</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>648446</v>
+        <v>644481</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>738600</v>
+        <v>736282</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3334140329716769</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3126224755255707</v>
+        <v>0.3107110612089445</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3560870684419458</v>
+        <v>0.3549694992581716</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>611</v>
@@ -6036,19 +6036,19 @@
         <v>632454</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>593050</v>
+        <v>592928</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>676650</v>
+        <v>676745</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3184161784897843</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2985778720087277</v>
+        <v>0.2985161452112293</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3406669271336958</v>
+        <v>0.3407148881325728</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1265</v>
@@ -6057,19 +6057,19 @@
         <v>1324026</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1263313</v>
+        <v>1267129</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>1383253</v>
+        <v>1382363</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3260775574009785</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3111252342706211</v>
+        <v>0.3120651387254055</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3406637262820185</v>
+        <v>0.3404446116083159</v>
       </c>
     </row>
     <row r="16">
@@ -6086,19 +6086,19 @@
         <v>858574</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>811812</v>
+        <v>818052</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>902894</v>
+        <v>907073</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4139277672173015</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.391382938297304</v>
+        <v>0.3943914489839017</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4352949086900344</v>
+        <v>0.4373094123030418</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>701</v>
@@ -6107,19 +6107,19 @@
         <v>727173</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>683458</v>
+        <v>680547</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>771085</v>
+        <v>769914</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3661036300411921</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3440947508079505</v>
+        <v>0.3426288636731142</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3882116968326727</v>
+        <v>0.3876219768062142</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1501</v>
@@ -6128,19 +6128,19 @@
         <v>1585748</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1522048</v>
+        <v>1519894</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1649618</v>
+        <v>1644615</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3905337134540875</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3748457141909806</v>
+        <v>0.3743152541824678</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4062635150273471</v>
+        <v>0.4050312387734549</v>
       </c>
     </row>
     <row r="17">
@@ -6232,19 +6232,19 @@
         <v>3151</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1033</v>
+        <v>1043</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7460</v>
+        <v>8490</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.005761464123594661</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.001888491601989645</v>
+        <v>0.001906721313663828</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.01364071513958009</v>
+        <v>0.01552377971063474</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>4</v>
@@ -6253,19 +6253,19 @@
         <v>4132</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>10697</v>
+        <v>9518</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.007551311700857231</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.001875583673588419</v>
+        <v>0.001873365244230641</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.01954851287300442</v>
+        <v>0.01739515195174109</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>7</v>
@@ -6274,19 +6274,19 @@
         <v>7283</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>3053</v>
+        <v>3032</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>14267</v>
+        <v>14574</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.006656635838644272</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.002790431991847682</v>
+        <v>0.002771011530295568</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01304021506247903</v>
+        <v>0.01332095008596935</v>
       </c>
     </row>
     <row r="19">
@@ -6303,19 +6303,19 @@
         <v>8555</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3740</v>
+        <v>3784</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>16857</v>
+        <v>16507</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01564362448174872</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006838177563177032</v>
+        <v>0.006918593344138139</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03082437342279879</v>
+        <v>0.03018433347520405</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>10</v>
@@ -6324,19 +6324,19 @@
         <v>10783</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4995</v>
+        <v>5674</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>19608</v>
+        <v>19575</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01970641415452391</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.009127750823638769</v>
+        <v>0.0103691121722038</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03583440278424067</v>
+        <v>0.03577449942375292</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>17</v>
@@ -6345,19 +6345,19 @@
         <v>19338</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>11672</v>
+        <v>11752</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>32444</v>
+        <v>30999</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01767558208834356</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01066809116400096</v>
+        <v>0.01074108070660156</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02965457154834239</v>
+        <v>0.0283331919014905</v>
       </c>
     </row>
     <row r="20">
@@ -6374,19 +6374,19 @@
         <v>41598</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>30245</v>
+        <v>31292</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>56537</v>
+        <v>58526</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.07606329643132505</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05530413768560313</v>
+        <v>0.05721773895022546</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1033792931953138</v>
+        <v>0.1070174519294083</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>63</v>
@@ -6395,19 +6395,19 @@
         <v>64109</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>50153</v>
+        <v>50422</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>80233</v>
+        <v>79736</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1171608578761453</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09165582956341571</v>
+        <v>0.09214696789994302</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1466270726789736</v>
+        <v>0.1457194110664851</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>102</v>
@@ -6416,19 +6416,19 @@
         <v>105707</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>85714</v>
+        <v>88759</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>124585</v>
+        <v>127632</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.09661776991290665</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07834394409841647</v>
+        <v>0.0811271568356169</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1138722128482366</v>
+        <v>0.1166568880549158</v>
       </c>
     </row>
     <row r="21">
@@ -6445,19 +6445,19 @@
         <v>72124</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>56848</v>
+        <v>56356</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>89146</v>
+        <v>89251</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1318819965119631</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1039485715378146</v>
+        <v>0.1030492564194459</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1630072183290184</v>
+        <v>0.1631982992103715</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>84</v>
@@ -6466,19 +6466,19 @@
         <v>87285</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>70535</v>
+        <v>71134</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>104971</v>
+        <v>105377</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1595158822919642</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1289034396888399</v>
+        <v>0.1299997136607874</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1918370972829378</v>
+        <v>0.192578328717899</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>153</v>
@@ -6487,19 +6487,19 @@
         <v>159410</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>135158</v>
+        <v>136667</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>183018</v>
+        <v>185583</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1457027671973653</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1235361988669747</v>
+        <v>0.124915273894234</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1672812425196941</v>
+        <v>0.16962519086573</v>
       </c>
     </row>
     <row r="22">
@@ -6516,19 +6516,19 @@
         <v>192571</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>169802</v>
+        <v>170422</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>216373</v>
+        <v>214763</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3521222456081188</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3104897066435931</v>
+        <v>0.3116233265105813</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.395644920431223</v>
+        <v>0.3927016058196129</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>176</v>
@@ -6537,19 +6537,19 @@
         <v>188590</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>164190</v>
+        <v>166254</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>212554</v>
+        <v>210849</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3446525729044827</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3000609578574193</v>
+        <v>0.3038331623682742</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3884474449085943</v>
+        <v>0.3853317432807409</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>351</v>
@@ -6558,19 +6558,19 @@
         <v>381161</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>351087</v>
+        <v>347442</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>417181</v>
+        <v>414683</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3483863745708767</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3208980353758294</v>
+        <v>0.3175670222581367</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3813092896354302</v>
+        <v>0.3790257551073957</v>
       </c>
     </row>
     <row r="23">
@@ -6587,19 +6587,19 @@
         <v>228887</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>204102</v>
+        <v>205591</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>251829</v>
+        <v>254213</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4185273728432497</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.373207339353619</v>
+        <v>0.3759303614811001</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4604780748468228</v>
+        <v>0.4648375333528635</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>187</v>
@@ -6608,19 +6608,19 @@
         <v>192289</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>170330</v>
+        <v>170190</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>217185</v>
+        <v>215147</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3514129610720266</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3112813125525021</v>
+        <v>0.3110253494848713</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3969109861519695</v>
+        <v>0.3931856180599968</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>395</v>
@@ -6629,19 +6629,19 @@
         <v>421176</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>388980</v>
+        <v>386557</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>454526</v>
+        <v>454838</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3849608703918636</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3555329449851329</v>
+        <v>0.3533179591050115</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4154428723741057</v>
+        <v>0.4157278186905179</v>
       </c>
     </row>
     <row r="24">
@@ -6733,19 +6733,19 @@
         <v>39185</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>28302</v>
+        <v>27862</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>54460</v>
+        <v>53253</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01160891474952065</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.008384624239117502</v>
+        <v>0.008254361388329655</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01613411308437047</v>
+        <v>0.01577664113187813</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>72</v>
@@ -6754,19 +6754,19 @@
         <v>77446</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>61725</v>
+        <v>60844</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>98570</v>
+        <v>97741</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02196427752986926</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01750589225119198</v>
+        <v>0.01725582633804911</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02795520538949148</v>
+        <v>0.02772030000833755</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>109</v>
@@ -6775,19 +6775,19 @@
         <v>116631</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>97182</v>
+        <v>95004</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>140944</v>
+        <v>140653</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01689953430860248</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01408141929593374</v>
+        <v>0.0137658614667512</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0204224075935154</v>
+        <v>0.02038034043748381</v>
       </c>
     </row>
     <row r="26">
@@ -6804,19 +6804,19 @@
         <v>58877</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>45287</v>
+        <v>45718</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>75983</v>
+        <v>76759</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01744283387673913</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0134167331700097</v>
+        <v>0.01354413643713155</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02251063094520068</v>
+        <v>0.02274031441526876</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>105</v>
@@ -6825,19 +6825,19 @@
         <v>116764</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>96420</v>
+        <v>96117</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>140049</v>
+        <v>140185</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.0331152770039029</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0273454275938127</v>
+        <v>0.02725960938705856</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03971898371063896</v>
+        <v>0.03975757817553675</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>161</v>
@@ -6846,19 +6846,19 @@
         <v>175641</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>150993</v>
+        <v>149368</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>203608</v>
+        <v>204097</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02544998301346681</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02187849239399346</v>
+        <v>0.02164308438916267</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02950231836529122</v>
+        <v>0.02957310829763476</v>
       </c>
     </row>
     <row r="27">
@@ -6875,19 +6875,19 @@
         <v>334189</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>301086</v>
+        <v>296878</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>370158</v>
+        <v>372887</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.0990058911941597</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.08919886270513994</v>
+        <v>0.08795216196047281</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1096620307750704</v>
+        <v>0.1104704469886044</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>439</v>
@@ -6896,19 +6896,19 @@
         <v>470365</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>432355</v>
+        <v>432330</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>514580</v>
+        <v>512942</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1333996774103123</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.122619540769267</v>
+        <v>0.1226126332576933</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1459395282194285</v>
+        <v>0.1454747866920466</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>760</v>
@@ -6917,19 +6917,19 @@
         <v>804554</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>750728</v>
+        <v>752763</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>856678</v>
+        <v>857913</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1165778915118473</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1087786642221903</v>
+        <v>0.109073479567572</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1241304491899251</v>
+        <v>0.1243094701107748</v>
       </c>
     </row>
     <row r="28">
@@ -6946,19 +6946,19 @@
         <v>527304</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>485082</v>
+        <v>484858</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>572192</v>
+        <v>569361</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1562174819249758</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1437089654904177</v>
+        <v>0.1436425168960171</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1695158318944095</v>
+        <v>0.1686773528843779</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>597</v>
@@ -6967,19 +6967,19 @@
         <v>635605</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>591033</v>
+        <v>588928</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>685630</v>
+        <v>680160</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1802632490612401</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1676221981748505</v>
+        <v>0.167025028486927</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1944505664575204</v>
+        <v>0.1928993824325596</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1117</v>
@@ -6988,19 +6988,19 @@
         <v>1162909</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1098756</v>
+        <v>1099257</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1227110</v>
+        <v>1225818</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1685026146260403</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1592069908855674</v>
+        <v>0.1592796192755815</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1778052286682618</v>
+        <v>0.1776179272262174</v>
       </c>
     </row>
     <row r="29">
@@ -7017,19 +7017,19 @@
         <v>1109796</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1054816</v>
+        <v>1055455</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1163885</v>
+        <v>1169661</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3287851319548833</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3124968558647124</v>
+        <v>0.3126860332031516</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3448093968763796</v>
+        <v>0.3465203562115111</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1018</v>
@@ -7038,19 +7038,19 @@
         <v>1082936</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1023867</v>
+        <v>1031842</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1141133</v>
+        <v>1138288</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3071301054393132</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2903776141993971</v>
+        <v>0.2926393353756679</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3236354226526688</v>
+        <v>0.3228285999672149</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2077</v>
@@ -7059,19 +7059,19 @@
         <v>2192732</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2114558</v>
+        <v>2114161</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2268960</v>
+        <v>2275409</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3177214435775791</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3063942158266545</v>
+        <v>0.3063366289619612</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3287666585988346</v>
+        <v>0.3297011262592676</v>
       </c>
     </row>
     <row r="30">
@@ -7088,19 +7088,19 @@
         <v>1306094</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1242195</v>
+        <v>1249851</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1358199</v>
+        <v>1366605</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3869397462997213</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3680092455482177</v>
+        <v>0.3702772150947502</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4023760732760938</v>
+        <v>0.404866455691329</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1089</v>
@@ -7109,19 +7109,19 @@
         <v>1142868</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1088472</v>
+        <v>1086380</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1202105</v>
+        <v>1204836</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3241274135553623</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3087001994621215</v>
+        <v>0.3081069396823706</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3409274400861425</v>
+        <v>0.3417020999410117</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2309</v>
@@ -7130,19 +7130,19 @@
         <v>2448962</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2376091</v>
+        <v>2371658</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>2537117</v>
+        <v>2544773</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3548485329624639</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.344289615303592</v>
+        <v>0.3436472613655249</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3676219461395392</v>
+        <v>0.3687312193488249</v>
       </c>
     </row>
     <row r="31">
@@ -7473,19 +7473,19 @@
         <v>9812</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5412</v>
+        <v>5669</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16483</v>
+        <v>17424</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.01698573641744148</v>
+        <v>0.01698573641744147</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009368904494878566</v>
+        <v>0.009814162989860521</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0285336217609288</v>
+        <v>0.03016353723228379</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>38</v>
@@ -7494,19 +7494,19 @@
         <v>19825</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14065</v>
+        <v>14089</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>27256</v>
+        <v>27471</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02411652361038442</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01710974119900828</v>
+        <v>0.01713874340302065</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03315633999862032</v>
+        <v>0.03341838604394299</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>52</v>
@@ -7515,19 +7515,19 @@
         <v>29637</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>22606</v>
+        <v>22047</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>39951</v>
+        <v>38903</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02117361686499996</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01615072505258521</v>
+        <v>0.01575103967209342</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02854246176199353</v>
+        <v>0.02779361409547766</v>
       </c>
     </row>
     <row r="5">
@@ -7544,19 +7544,19 @@
         <v>24854</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>15889</v>
+        <v>16767</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>36129</v>
+        <v>36413</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04302507352026379</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02750621517210192</v>
+        <v>0.02902531203803236</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06254377102311089</v>
+        <v>0.06303485567717411</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>115</v>
@@ -7565,19 +7565,19 @@
         <v>66103</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>54668</v>
+        <v>54610</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>79016</v>
+        <v>78596</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08041301571138636</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06650282801371371</v>
+        <v>0.06643210050397211</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09612228797914991</v>
+        <v>0.09561173659356335</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>143</v>
@@ -7586,19 +7586,19 @@
         <v>90956</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>76023</v>
+        <v>77374</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>107428</v>
+        <v>106412</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.06498285010790428</v>
+        <v>0.06498285010790426</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05431370340234674</v>
+        <v>0.05527919216408782</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07675089665291258</v>
+        <v>0.07602472859032861</v>
       </c>
     </row>
     <row r="6">
@@ -7615,19 +7615,19 @@
         <v>73687</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>59239</v>
+        <v>61534</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>89594</v>
+        <v>90305</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1275602284230499</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1025490600578551</v>
+        <v>0.106522387947874</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1550984532033892</v>
+        <v>0.1563289622823713</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>266</v>
@@ -7636,19 +7636,19 @@
         <v>150562</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>132651</v>
+        <v>132712</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>165955</v>
+        <v>169147</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1831569043634641</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1613684728454921</v>
+        <v>0.1614424612955225</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2018823710261515</v>
+        <v>0.2057648767704617</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>368</v>
@@ -7657,19 +7657,19 @@
         <v>224249</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>203381</v>
+        <v>203721</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>249009</v>
+        <v>247157</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1602119155117532</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1453032167818729</v>
+        <v>0.1455464668497735</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1779018790799917</v>
+        <v>0.1765786297965862</v>
       </c>
     </row>
     <row r="7">
@@ -7686,19 +7686,19 @@
         <v>100892</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>85739</v>
+        <v>85164</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>118398</v>
+        <v>118649</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1746551057565714</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1484249110217664</v>
+        <v>0.1474287620044347</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2049609421307469</v>
+        <v>0.2053952033606562</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>295</v>
@@ -7707,19 +7707,19 @@
         <v>164247</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>147543</v>
+        <v>145392</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>183175</v>
+        <v>181433</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1998042505658883</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1794848736719923</v>
+        <v>0.1768673384324485</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2228309210307462</v>
+        <v>0.2207116530409193</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>424</v>
@@ -7728,19 +7728,19 @@
         <v>265138</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>242628</v>
+        <v>241080</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>290122</v>
+        <v>291227</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1894250896265132</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.173342727565792</v>
+        <v>0.1722367495264387</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2072740848275392</v>
+        <v>0.2080641266108155</v>
       </c>
     </row>
     <row r="8">
@@ -7757,19 +7757,19 @@
         <v>176569</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>156142</v>
+        <v>156242</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>200210</v>
+        <v>198421</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3056613747605251</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2702994694792542</v>
+        <v>0.2704723174602532</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3465863642919987</v>
+        <v>0.3434892933836367</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>398</v>
@@ -7778,19 +7778,19 @@
         <v>224894</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>205284</v>
+        <v>205535</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>243533</v>
+        <v>245398</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.2735814163221953</v>
+        <v>0.2735814163221954</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2497257982916833</v>
+        <v>0.2500311101059675</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2962545889172072</v>
+        <v>0.2985242505098261</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>602</v>
@@ -7799,19 +7799,19 @@
         <v>401463</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>371622</v>
+        <v>370856</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>427358</v>
+        <v>431838</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.2868209540513882</v>
+        <v>0.2868209540513883</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2655013667236609</v>
+        <v>0.2649535754337594</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3053212944996955</v>
+        <v>0.3085217135158865</v>
       </c>
     </row>
     <row r="9">
@@ -7828,19 +7828,19 @@
         <v>191849</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>169708</v>
+        <v>169949</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>218330</v>
+        <v>214756</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3321124811221483</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2937838480337046</v>
+        <v>0.2942019212431834</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3779542915292401</v>
+        <v>0.3717667467791631</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>315</v>
@@ -7849,19 +7849,19 @@
         <v>196408</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>177986</v>
+        <v>175984</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>217028</v>
+        <v>215298</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.2389278894266815</v>
+        <v>0.2389278894266814</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2165182946660412</v>
+        <v>0.2140828522264216</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2640120181883479</v>
+        <v>0.2619080994651147</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>528</v>
@@ -7870,19 +7870,19 @@
         <v>388257</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>358245</v>
+        <v>361062</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>419879</v>
+        <v>420072</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.277385573837441</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2559438437055731</v>
+        <v>0.2579563541064626</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.299978129475991</v>
+        <v>0.3001155349869131</v>
       </c>
     </row>
     <row r="10">
@@ -7974,19 +7974,19 @@
         <v>20259</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>12809</v>
+        <v>12400</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>31517</v>
+        <v>31682</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.009082581791343188</v>
+        <v>0.009082581791343186</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.005742509134062369</v>
+        <v>0.005558959140504294</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01412972603183025</v>
+        <v>0.01420345258622503</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>53</v>
@@ -7995,19 +7995,19 @@
         <v>40843</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>30133</v>
+        <v>30492</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>55046</v>
+        <v>56338</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01881854249879119</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01388374458044518</v>
+        <v>0.014049476590197</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.025362427819235</v>
+        <v>0.02595810870226819</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>72</v>
@@ -8016,19 +8016,19 @@
         <v>61102</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>47374</v>
+        <v>48602</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>79363</v>
+        <v>79071</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01388396391343038</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01076459692823863</v>
+        <v>0.01104362332372541</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01803322021104983</v>
+        <v>0.01796698426740064</v>
       </c>
     </row>
     <row r="12">
@@ -8045,19 +8045,19 @@
         <v>69304</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>52319</v>
+        <v>52082</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>89961</v>
+        <v>88083</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03107017202490294</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02345564604550407</v>
+        <v>0.02334912821402004</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04033120803338468</v>
+        <v>0.03948907404832087</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>127</v>
@@ -8066,19 +8066,19 @@
         <v>92421</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>77546</v>
+        <v>76153</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>113639</v>
+        <v>111112</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04258307090695096</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03572936080590551</v>
+        <v>0.03508773782257964</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05235963261188979</v>
+        <v>0.05119528475068547</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>187</v>
@@ -8087,19 +8087,19 @@
         <v>161725</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>139515</v>
+        <v>137037</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>192492</v>
+        <v>188136</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.0367478681995984</v>
+        <v>0.03674786819959841</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03170120162283119</v>
+        <v>0.03113832069118597</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04373900580994364</v>
+        <v>0.04274925853453473</v>
       </c>
     </row>
     <row r="13">
@@ -8116,19 +8116,19 @@
         <v>206845</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>180971</v>
+        <v>179578</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>234999</v>
+        <v>238630</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09273185241954437</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08113227224838215</v>
+        <v>0.08050795069336791</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1053540017242702</v>
+        <v>0.1069819340160549</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>452</v>
@@ -8137,19 +8137,19 @@
         <v>288308</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>260101</v>
+        <v>261168</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>316730</v>
+        <v>316410</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1328388020340138</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1198424869587606</v>
+        <v>0.1203340910178641</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1459342238777523</v>
+        <v>0.145787064784012</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>676</v>
@@ -8158,19 +8158,19 @@
         <v>495152</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>456464</v>
+        <v>457866</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>537536</v>
+        <v>537187</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1125109781408561</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1037199889675619</v>
+        <v>0.1040385002631086</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1221416118716576</v>
+        <v>0.1220623585447202</v>
       </c>
     </row>
     <row r="14">
@@ -8187,19 +8187,19 @@
         <v>265305</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>236680</v>
+        <v>234864</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>301867</v>
+        <v>302204</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1189408854421839</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1061076841235516</v>
+        <v>0.1052934821442592</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1353319748480679</v>
+        <v>0.1354831119849124</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>394</v>
@@ -8208,19 +8208,19 @@
         <v>265177</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>239076</v>
+        <v>240095</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>295009</v>
+        <v>293358</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.1221811173431762</v>
+        <v>0.1221811173431761</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.11015499405596</v>
+        <v>0.1106245332941625</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1359265906095579</v>
+        <v>0.1351656942391243</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>664</v>
@@ -8229,19 +8229,19 @@
         <v>530482</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>487932</v>
+        <v>488495</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>571433</v>
+        <v>576784</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1205388367885712</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1108704505574751</v>
+        <v>0.1109981736086453</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.129843757388984</v>
+        <v>0.1310597301846524</v>
       </c>
     </row>
     <row r="15">
@@ -8258,19 +8258,19 @@
         <v>689536</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>637674</v>
+        <v>632834</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>741991</v>
+        <v>740759</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3091306206008484</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.285879752794941</v>
+        <v>0.2837098542016986</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3326469381537696</v>
+        <v>0.3320945957222849</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>906</v>
@@ -8279,19 +8279,19 @@
         <v>647415</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>610177</v>
+        <v>608288</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>688495</v>
+        <v>682412</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.298298862666881</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2811410906068221</v>
+        <v>0.2802709374433651</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.317226378538006</v>
+        <v>0.3144236591821943</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1540</v>
@@ -8300,19 +8300,19 @@
         <v>1336952</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1275026</v>
+        <v>1273982</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>1405965</v>
+        <v>1405421</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3037888355980451</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2897177563409714</v>
+        <v>0.2894806265889318</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3194704892857736</v>
+        <v>0.3193468649036059</v>
       </c>
     </row>
     <row r="16">
@@ -8329,19 +8329,19 @@
         <v>979316</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>927766</v>
+        <v>919343</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1034060</v>
+        <v>1030670</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4390438877211773</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4159330867505718</v>
+        <v>0.412156756137783</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4635862699830691</v>
+        <v>0.4620667757295182</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>987</v>
@@ -8350,19 +8350,19 @@
         <v>836195</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>794627</v>
+        <v>794204</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>879887</v>
+        <v>879007</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.3852796045501869</v>
+        <v>0.385279604550187</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3661271109159693</v>
+        <v>0.3659320712411919</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4054112093694328</v>
+        <v>0.4050056565634597</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1772</v>
@@ -8371,19 +8371,19 @@
         <v>1815511</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1746754</v>
+        <v>1752445</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1884078</v>
+        <v>1886639</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.4125295173594986</v>
+        <v>0.4125295173594987</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3969061371075895</v>
+        <v>0.3981993806442788</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4281095861734406</v>
+        <v>0.4286915971107002</v>
       </c>
     </row>
     <row r="17">
@@ -8475,19 +8475,19 @@
         <v>7060</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2858</v>
+        <v>3088</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>14435</v>
+        <v>13832</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.009921967577093703</v>
+        <v>0.009921967577093701</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.004015744958790432</v>
+        <v>0.004338902252443699</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02028569952456348</v>
+        <v>0.01943830584044792</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>20</v>
@@ -8496,19 +8496,19 @@
         <v>14423</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>9514</v>
+        <v>9400</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>21880</v>
+        <v>22990</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01962583596005454</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01294691297121248</v>
+        <v>0.01279131989202907</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02977372985485656</v>
+        <v>0.03128362950795609</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>27</v>
@@ -8517,19 +8517,19 @@
         <v>21483</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>14578</v>
+        <v>14118</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>31036</v>
+        <v>30559</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01485202520266271</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01007833765854879</v>
+        <v>0.009760016703492852</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.02145624828159708</v>
+        <v>0.02112672246383821</v>
       </c>
     </row>
     <row r="19">
@@ -8546,19 +8546,19 @@
         <v>18220</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>10573</v>
+        <v>10373</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>29703</v>
+        <v>29880</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02560537095722339</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01485849929203296</v>
+        <v>0.01457742397842666</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04174235689865045</v>
+        <v>0.04199061154987881</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>39</v>
@@ -8567,19 +8567,19 @@
         <v>26766</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>18749</v>
+        <v>19155</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>35861</v>
+        <v>36201</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03642198945753651</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02551366222644413</v>
+        <v>0.02606566671790147</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04879912583368491</v>
+        <v>0.04926175726919408</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>56</v>
@@ -8588,19 +8588,19 @@
         <v>44986</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>34944</v>
+        <v>34398</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>60962</v>
+        <v>58638</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.03110076211627666</v>
+        <v>0.03110076211627665</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02415820448876769</v>
+        <v>0.02378085018541727</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04214579866196091</v>
+        <v>0.04053906365780897</v>
       </c>
     </row>
     <row r="20">
@@ -8617,19 +8617,19 @@
         <v>77890</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>63031</v>
+        <v>62861</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>97996</v>
+        <v>96729</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1094600353396663</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08857777936899845</v>
+        <v>0.08833922746992559</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1377145865694404</v>
+        <v>0.1359339640753716</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>148</v>
@@ -8638,19 +8638,19 @@
         <v>102711</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>87131</v>
+        <v>87525</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>120720</v>
+        <v>121112</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1397667537821757</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1185648989513113</v>
+        <v>0.1191019046196639</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1642728012892004</v>
+        <v>0.1648060714359483</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>230</v>
@@ -8659,19 +8659,19 @@
         <v>180602</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>156488</v>
+        <v>155728</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>205053</v>
+        <v>204045</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.1248573864234696</v>
+        <v>0.1248573864234695</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1081868855602044</v>
+        <v>0.1076612357607395</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1417613941714999</v>
+        <v>0.1410644594400578</v>
       </c>
     </row>
     <row r="21">
@@ -8688,19 +8688,19 @@
         <v>86365</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>69213</v>
+        <v>69847</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>105204</v>
+        <v>105955</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1213689335392877</v>
+        <v>0.1213689335392876</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.09726638849062338</v>
+        <v>0.09815709921553435</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1478435560523466</v>
+        <v>0.1488991298213827</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>145</v>
@@ -8709,19 +8709,19 @@
         <v>96751</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>81589</v>
+        <v>82281</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>114350</v>
+        <v>114146</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1316558501008652</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1110242861412439</v>
+        <v>0.1119658871350752</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1556042659776434</v>
+        <v>0.1553260628061977</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>234</v>
@@ -8730,19 +8730,19 @@
         <v>183115</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>159475</v>
+        <v>158743</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>207737</v>
+        <v>208097</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1265952092302326</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1102519248642846</v>
+        <v>0.1097458979607704</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1436174494419273</v>
+        <v>0.1438657969589152</v>
       </c>
     </row>
     <row r="22">
@@ -8759,19 +8759,19 @@
         <v>219663</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>194343</v>
+        <v>192885</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>248016</v>
+        <v>248346</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.3086944751200738</v>
+        <v>0.3086944751200737</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2731114519617999</v>
+        <v>0.2710624827309014</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3485389977969435</v>
+        <v>0.3490024280204542</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>347</v>
@@ -8780,19 +8780,19 @@
         <v>251522</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>227407</v>
+        <v>227282</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>274733</v>
+        <v>273668</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3422641256917904</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3094491649093654</v>
+        <v>0.309279212170918</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3738492183172998</v>
+        <v>0.3723999956092743</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>567</v>
@@ -8801,19 +8801,19 @@
         <v>471185</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>438552</v>
+        <v>437234</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>507945</v>
+        <v>507545</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3257495613246005</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3031888507656662</v>
+        <v>0.3022779298964102</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3511631680910732</v>
+        <v>0.3508870099844086</v>
       </c>
     </row>
     <row r="23">
@@ -8830,19 +8830,19 @@
         <v>302388</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>271848</v>
+        <v>273317</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>331327</v>
+        <v>332496</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.4249492174666552</v>
+        <v>0.4249492174666551</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3820310628392958</v>
+        <v>0.3840952741554903</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4656172032322373</v>
+        <v>0.4672593098781824</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>305</v>
@@ -8851,19 +8851,19 @@
         <v>242704</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>218547</v>
+        <v>220867</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>264152</v>
+        <v>264696</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.3302654450075775</v>
+        <v>0.3302654450075776</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2973928165388214</v>
+        <v>0.300549329678698</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3594511614965752</v>
+        <v>0.3601906251515546</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>571</v>
@@ -8872,19 +8872,19 @@
         <v>545093</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>503262</v>
+        <v>506803</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>584500</v>
+        <v>581394</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.3768450557027581</v>
+        <v>0.3768450557027579</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.347925648645279</v>
+        <v>0.3503734461279156</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4040887617650792</v>
+        <v>0.4019417113989924</v>
       </c>
     </row>
     <row r="24">
@@ -8976,19 +8976,19 @@
         <v>37132</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>26397</v>
+        <v>26971</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>50097</v>
+        <v>51510</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01054932073549261</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.007499582740874285</v>
+        <v>0.007662543203954677</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01423273625648244</v>
+        <v>0.01463422781589608</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>111</v>
@@ -8997,19 +8997,19 @@
         <v>75090</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>60947</v>
+        <v>60721</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>93434</v>
+        <v>92188</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02014616264491586</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01635174194610618</v>
+        <v>0.01629102730072349</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02506754306742416</v>
+        <v>0.02473336979166138</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>151</v>
@@ -9018,19 +9018,19 @@
         <v>112222</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>93407</v>
+        <v>93627</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>133121</v>
+        <v>133528</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01548510269863175</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01288887833827922</v>
+        <v>0.01291918961634579</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01836892674649171</v>
+        <v>0.01842510843899536</v>
       </c>
     </row>
     <row r="26">
@@ -9047,19 +9047,19 @@
         <v>112379</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>91160</v>
+        <v>88979</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>138270</v>
+        <v>138290</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.03192738015715694</v>
+        <v>0.03192738015715693</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02589897016560643</v>
+        <v>0.0252795244631883</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03928330774275198</v>
+        <v>0.03928907428628201</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>281</v>
@@ -9068,19 +9068,19 @@
         <v>185289</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>164974</v>
+        <v>163326</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>209298</v>
+        <v>209488</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.04971160919512579</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.04426126501878397</v>
+        <v>0.0438192730522641</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.05615306817852618</v>
+        <v>0.05620404309392431</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>386</v>
@@ -9089,19 +9089,19 @@
         <v>297667</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>266179</v>
+        <v>264382</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>331546</v>
+        <v>334323</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.04107404295960975</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.03672906700041128</v>
+        <v>0.03648109685788972</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.04574891160509843</v>
+        <v>0.04613198554633589</v>
       </c>
     </row>
     <row r="27">
@@ -9118,19 +9118,19 @@
         <v>358422</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>324917</v>
+        <v>321689</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>395686</v>
+        <v>392049</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1018296580229832</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.09231077096718646</v>
+        <v>0.09139360624798064</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1124166205167874</v>
+        <v>0.1113834217268388</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>866</v>
@@ -9139,19 +9139,19 @@
         <v>541581</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>506667</v>
+        <v>506376</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>580514</v>
+        <v>581184</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1453022250055419</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1359349903742543</v>
+        <v>0.1358570157852018</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1557475665931506</v>
+        <v>0.1559274218437635</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1274</v>
@@ -9160,19 +9160,19 @@
         <v>900003</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>849383</v>
+        <v>850613</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>952392</v>
+        <v>952182</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.1241881707534243</v>
+        <v>0.1241881707534244</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1172032715311089</v>
+        <v>0.1173729988912062</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1314171811537816</v>
+        <v>0.1313882212387205</v>
       </c>
     </row>
     <row r="28">
@@ -9189,19 +9189,19 @@
         <v>452562</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>412548</v>
+        <v>410789</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>496164</v>
+        <v>496334</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1285754165594503</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1172073478220283</v>
+        <v>0.1167074574928491</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1409630295530502</v>
+        <v>0.1410113849705997</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>834</v>
@@ -9210,19 +9210,19 @@
         <v>526174</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>488020</v>
+        <v>491778</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>563684</v>
+        <v>562558</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1411687044652186</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1309322369979233</v>
+        <v>0.1319404846645383</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1512324017033924</v>
+        <v>0.1509300667460922</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1322</v>
@@ -9231,19 +9231,19 @@
         <v>978736</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>926475</v>
+        <v>923282</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1037446</v>
+        <v>1031584</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.135052310092611</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.12784100235011</v>
+        <v>0.1274004633443421</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.143153519433886</v>
+        <v>0.1423445756685097</v>
       </c>
     </row>
     <row r="29">
@@ -9260,19 +9260,19 @@
         <v>1085768</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1030770</v>
+        <v>1030444</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1146295</v>
+        <v>1146368</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3084730838702848</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2928475731149107</v>
+        <v>0.2927551534597964</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3256688972053234</v>
+        <v>0.3256897678626684</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1651</v>
@@ -9281,19 +9281,19 @@
         <v>1123832</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1076410</v>
+        <v>1073385</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1174486</v>
+        <v>1172071</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3015157980868133</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2887928863496127</v>
+        <v>0.2879813844534255</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3151060342921603</v>
+        <v>0.3144579575728081</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2709</v>
@@ -9302,19 +9302,19 @@
         <v>2209600</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2135589</v>
+        <v>2136794</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2296481</v>
+        <v>2287544</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3048948603248136</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2946822750931575</v>
+        <v>0.2948485459641643</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3168832468853943</v>
+        <v>0.3156500572139192</v>
       </c>
     </row>
     <row r="30">
@@ -9331,19 +9331,19 @@
         <v>1473554</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1408131</v>
+        <v>1403201</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1536604</v>
+        <v>1539197</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.4186451406546321</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4000582566563902</v>
+        <v>0.3986573899851506</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4365579341492704</v>
+        <v>0.4372947099461647</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1607</v>
@@ -9352,19 +9352,19 @@
         <v>1275307</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1223964</v>
+        <v>1222489</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1329902</v>
+        <v>1325907</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3421555006023846</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3283806173529272</v>
+        <v>0.3279849399378157</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3568029194098029</v>
+        <v>0.3557311211651892</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2871</v>
@@ -9373,19 +9373,19 @@
         <v>2748861</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2653891</v>
+        <v>2654636</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>2831238</v>
+        <v>2827683</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3793055131709095</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3662009193038962</v>
+        <v>0.3663037438983519</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3906724514848433</v>
+        <v>0.3901818922701735</v>
       </c>
     </row>
     <row r="31">
